--- a/dev_list.xlsx
+++ b/dev_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StevieChen/Python_Project/For_github_By_Stevie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78E61B5-FC5D-084A-9471-3F61E0FB0BB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B2BAC5-A75C-9D4F-A1D3-AACA47815B7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="760" windowWidth="18420" windowHeight="15500" xr2:uid="{9FF29893-6C1C-FF4F-A57A-CCBF8C6B175E}"/>
   </bookViews>
@@ -33,56 +33,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cisco_nxos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cisco_xe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module/platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cisco_ios</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>device_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>host</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>secret</t>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cisco_nxos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cisco_xe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module/platform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>platform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cisco_ios</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,6 +131,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,8 +189,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -489,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252170C8-727E-BC49-ACBF-A321E6AD30F4}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16"/>
@@ -506,83 +525,109 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
+      <c r="A4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
